--- a/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="7020"/>
+    <workbookView windowWidth="24690" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24690" windowHeight="9900"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -56,9 +56,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>##group</t>
   </si>
   <si>
@@ -69,18 +66,6 @@
   </si>
   <si>
     <t>技能效果</t>
-  </si>
-  <si>
-    <t>无界通行</t>
-  </si>
-  <si>
-    <t>San值-25，下一次解锁被缠绕的物件时将无视代价</t>
-  </si>
-  <si>
-    <t>膛线与真理</t>
-  </si>
-  <si>
-    <t>San值-5.下一次通过枪械的造成的伤害+50%</t>
   </si>
 </sst>
 </file>
@@ -696,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +696,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,16 +1014,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.4" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2636363636364" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1070,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1087,42 +1075,38 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>100001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
+      <c r="C5" s="5">
+        <v>740001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>840001</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -1138,11 +1122,11 @@
       <c r="B6" s="1">
         <v>100002</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+      <c r="C6" s="5">
+        <v>740002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>840002</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>

--- a/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/cha_ActiveSkills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27765" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -1013,17 +1013,17 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.4636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.4" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.2636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,9 +1077,15 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
